--- a/DataTest/SampleTestData.xlsx
+++ b/DataTest/SampleTestData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EB6E0-2995-41B6-B6B6-AC2EF5EF7712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hybrid" sheetId="2" r:id="rId1"/>
-    <sheet name="KeyWordDrivenNew" sheetId="4" r:id="rId2"/>
-    <sheet name="KeyWordDriven" sheetId="3" r:id="rId3"/>
-    <sheet name="DataDriven" sheetId="1" r:id="rId4"/>
+    <sheet name="Products" sheetId="5" r:id="rId1"/>
+    <sheet name="Hybrid" sheetId="2" r:id="rId2"/>
+    <sheet name="KeyWordDrivenNew" sheetId="4" r:id="rId3"/>
+    <sheet name="KeyWordDriven" sheetId="3" r:id="rId4"/>
+    <sheet name="DataDriven" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Hello, Mahmudul</t>
   </si>
@@ -165,19 +167,34 @@
     <t>Input</t>
   </si>
   <si>
-    <t>shebleymsi@gmail.com</t>
-  </si>
-  <si>
-    <t>Hello,Shebley</t>
-  </si>
-  <si>
-    <t>Hello, Mahmud</t>
+    <t>mahmud@gmail.com</t>
+  </si>
+  <si>
+    <t>Hello,Mahmud</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Hand Sanitizer</t>
+  </si>
+  <si>
+    <t>Iphone 11 pro max</t>
+  </si>
+  <si>
+    <t>hand soap</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>shirt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,148 +541,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA12BACB-E40E-4C9D-8265-08BE670C7E4A}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -674,22 +587,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95395E84-CCBB-4D1D-B5C3-E33C54652F16}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2469180C-3CCD-49D6-B626-080CCC93AEBE}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -706,7 +769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -720,7 +783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -731,7 +794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -739,7 +802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>40</v>
       </c>
@@ -750,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -758,7 +821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -771,27 +834,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F7484891-5E86-4163-9FD6-1900CAC09A32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4791DAE-0403-4E84-9B62-81C201A9EFD1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -802,7 +865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -813,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -821,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -829,7 +892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -837,7 +900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -845,7 +908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -858,22 +921,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -884,18 +947,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -906,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -917,18 +980,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -939,7 +1002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
